--- a/results/results_waterTanks.xlsx
+++ b/results/results_waterTanks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Documents\Repositories\distributed-monitoring\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB33B42-40AE-4497-B5CF-A7B30D4A9744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B36AEC9-7DAF-4019-B333-FA505D6B2B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>D = 1s (20 samples)</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>SMT/C-RELATIVE</t>
+  </si>
+  <si>
+    <t>smt/coarse</t>
+  </si>
+  <si>
+    <t>fine/f-relative</t>
   </si>
 </sst>
 </file>
@@ -319,14 +325,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -792,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ref="B15:M15" si="1">B9/B8</f>
+        <f>B9/B8</f>
         <v>18228.758335598133</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B15:M15" si="1">C9/C8</f>
         <v>5908.9523916069711</v>
       </c>
       <c r="D15" s="2">
@@ -840,18 +845,124 @@
         <v>33.465159286270307</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f>B9/B7</f>
+        <v>14725.328164144747</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:M16" si="2">C9/C7</f>
+        <v>4034.016836093389</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>881.62208205172715</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>7.2699532846014874</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>78858.95886959818</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>25133.922732790077</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2165.2195841232228</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>14.221923152477254</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>103846.19976374488</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>33150.53958759825</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>3156.9515030818607</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>23.475531005089803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f>B5/B6</f>
+        <v>2.945143945637049</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:M17" si="3">C5/C6</f>
+        <v>6.1462886491855206</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>476.32489569688113</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>2.9240108666263249</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>7.2690905280047415</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>88.430705720724362</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>2.6899551715566528</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>4.2178653238355741</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>18.222797311108792</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
